--- a/auto_training_log.xlsx
+++ b/auto_training_log.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1496,6 +1496,43 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2026-01-27 17:01:16</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>DynamicCNN</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>[{'filters': 32, 'kernel': 3, 'pool': True}, {'filters': 64, 'kernel': 3, 'pool': True}, {'filters': 128, 'kernel': 3, 'pool': True}, {'filters': 256, 'kernel': 3, 'pool': True}, {'filters': 512, 'kernel': 3, 'pool': True}, {'filters': 64, 'kernel': 3, 'pool': True}, {'filters': 512, 'kernel': 3, 'pool': True}]</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>[512]</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>8.000000000000001e-05</v>
+      </c>
+      <c r="G29" t="n">
+        <v>32</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.2198234265809879</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
